--- a/Tables/Table S2.xlsx
+++ b/Tables/Table S2.xlsx
@@ -8,20 +8,19 @@
     <sheet state="visible" name="Coverage" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Summary of methylation" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Methylation Symmetry" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Sheet4" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mieOUI0QeWcNxereTNE0OC9KGy9Bw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhJxG3CYZ3/BaNEXSBe3yAeF59Jlw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="181">
   <si>
     <t>Table S2: Summary and general information for bisulfite sequencing and methylome of F. vesca</t>
   </si>
@@ -509,33 +508,6 @@
     <t>Table showing basic information of numbers of methylated and all cytosine of different methylation context (CGN, CHG, CHH) identified from bisulfite sequencing. And proportion of methylated cytosines in each methylation context</t>
   </si>
   <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>methylated CGN</t>
-  </si>
-  <si>
-    <t>total CGN</t>
-  </si>
-  <si>
-    <t>methylated CHG</t>
-  </si>
-  <si>
-    <t>total CHG</t>
-  </si>
-  <si>
-    <t>methylated CHH</t>
-  </si>
-  <si>
-    <t>total CHH</t>
-  </si>
-  <si>
-    <t>all methylated C</t>
-  </si>
-  <si>
-    <t>all C</t>
-  </si>
-  <si>
     <t>ES12NT3</t>
   </si>
   <si>
@@ -591,30 +563,6 @@
   </si>
   <si>
     <t>NOR2ET</t>
-  </si>
-  <si>
-    <t>genes with TE</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>p-value of fisher exact text</t>
-  </si>
-  <si>
-    <t>ES12</t>
-  </si>
-  <si>
-    <t>ICE2</t>
-  </si>
-  <si>
-    <t>IT4</t>
-  </si>
-  <si>
-    <t>NOR2</t>
-  </si>
-  <si>
-    <t>GENOME</t>
   </si>
 </sst>
 </file>
@@ -624,7 +572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -691,27 +639,6 @@
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -719,12 +646,6 @@
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -736,6 +657,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
       </patternFill>
     </fill>
     <fill>
@@ -757,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -814,12 +741,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -829,24 +750,12 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="10" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="10" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="10" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
@@ -854,11 +763,11 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -867,15 +776,6 @@
     <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -901,10 +801,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5507,23 +5403,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="20"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
@@ -5540,23 +5436,23 @@
       <c r="H2" s="2"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -5564,131 +5460,139 @@
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="29">
+        <v>162</v>
+      </c>
+      <c r="B6" s="23">
         <v>3832624.0</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="23">
         <v>7188343.0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="24">
         <f t="shared" ref="D6:D13" si="2">B6/C6</f>
         <v>0.5331721093</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="23">
         <v>2680644.0</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="23">
         <v>9705342.0</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="25">
         <f t="shared" ref="G6:G13" si="3">E6/F6</f>
         <v>0.2762029406</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="23">
         <v>2697023.0</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="23">
         <v>4.3800664E7</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="26">
         <f t="shared" ref="J6:J13" si="4">H6/I6</f>
         <v>0.06157493412</v>
       </c>
@@ -5700,43 +5604,43 @@
         <f t="shared" si="1"/>
         <v>60694349</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="27">
         <f t="shared" ref="M6:M13" si="6">K6/L6</f>
         <v>0.1517487402</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="29">
+        <v>163</v>
+      </c>
+      <c r="B7" s="23">
         <v>3787126.0</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="23">
         <v>7053287.0</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="24">
         <f t="shared" si="2"/>
         <v>0.5369306538</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="23">
         <v>2738910.0</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <v>9456343.0</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="25">
         <f t="shared" si="3"/>
         <v>0.2896373365</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="23">
         <v>3354825.0</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="23">
         <v>4.1671008E7</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="26">
         <f t="shared" si="4"/>
         <v>0.08050741177</v>
       </c>
@@ -5748,43 +5652,43 @@
         <f t="shared" si="5"/>
         <v>58180638</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="27">
         <f t="shared" si="6"/>
         <v>0.1698307433</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="29">
+        <v>164</v>
+      </c>
+      <c r="B8" s="23">
         <v>4152922.0</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="23">
         <v>7334909.0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="24">
         <f t="shared" si="2"/>
         <v>0.5661858927</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="23">
         <v>2902496.0</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="23">
         <v>9773037.0</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="25">
         <f t="shared" si="3"/>
         <v>0.2969901782</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="23">
         <v>3224375.0</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="23">
         <v>4.3822197E7</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="26">
         <f t="shared" si="4"/>
         <v>0.07357857937</v>
       </c>
@@ -5796,43 +5700,43 @@
         <f t="shared" si="7"/>
         <v>60930143</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="27">
         <f t="shared" si="6"/>
         <v>0.1687144079</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="29">
+        <v>165</v>
+      </c>
+      <c r="B9" s="23">
         <v>4215404.0</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="23">
         <v>7482772.0</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="24">
         <f t="shared" si="2"/>
         <v>0.5633479144</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="23">
         <v>3023998.0</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="23">
         <v>1.0031952E7</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="25">
         <f t="shared" si="3"/>
         <v>0.3014366496</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="23">
         <v>4116887.0</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="23">
         <v>4.6017087E7</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="26">
         <f t="shared" si="4"/>
         <v>0.08946431138</v>
       </c>
@@ -5844,43 +5748,43 @@
         <f t="shared" si="8"/>
         <v>63531811</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="27">
         <f t="shared" si="6"/>
         <v>0.1787496503</v>
       </c>
-      <c r="O9" s="34"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="29">
+        <v>166</v>
+      </c>
+      <c r="B10" s="23">
         <v>4017223.0</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="23">
         <v>7478826.0</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="24">
         <f t="shared" si="2"/>
         <v>0.5371462045</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="23">
         <v>2852316.0</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="23">
         <v>1.0094757E7</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="25">
         <f t="shared" si="3"/>
         <v>0.2825542012</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="23">
         <v>2770582.0</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="23">
         <v>4.6554232E7</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="26">
         <f t="shared" si="4"/>
         <v>0.05951299981</v>
       </c>
@@ -5892,43 +5796,43 @@
         <f t="shared" si="9"/>
         <v>64127815</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="27">
         <f t="shared" si="6"/>
         <v>0.1503266718</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="29">
+        <v>167</v>
+      </c>
+      <c r="B11" s="23">
         <v>3875002.0</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="23">
         <v>7295217.0</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="24">
         <f t="shared" si="2"/>
         <v>0.5311702174</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="23">
         <v>2822002.0</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="23">
         <v>9855929.0</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="25">
         <f t="shared" si="3"/>
         <v>0.2863253175</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="23">
         <v>3362932.0</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="23">
         <v>4.4875251E7</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="26">
         <f t="shared" si="4"/>
         <v>0.0749395697</v>
       </c>
@@ -5940,43 +5844,43 @@
         <f t="shared" si="10"/>
         <v>62026397</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="27">
         <f t="shared" si="6"/>
         <v>0.1621879794</v>
       </c>
-      <c r="O11" s="34"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="29">
+        <v>168</v>
+      </c>
+      <c r="B12" s="23">
         <v>3574558.0</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="23">
         <v>6999103.0</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="24">
         <f t="shared" si="2"/>
         <v>0.5107165875</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="23">
         <v>2440151.0</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="23">
         <v>9655583.0</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="25">
         <f t="shared" si="3"/>
         <v>0.2527191781</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="23">
         <v>2083964.0</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="23">
         <v>4.5001914E7</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="26">
         <f t="shared" si="4"/>
         <v>0.04630834146</v>
       </c>
@@ -5988,43 +5892,43 @@
         <f t="shared" si="11"/>
         <v>61656600</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="27">
         <f t="shared" si="6"/>
         <v>0.1313512746</v>
       </c>
-      <c r="O12" s="34"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="29">
+        <v>169</v>
+      </c>
+      <c r="B13" s="23">
         <v>3881923.0</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="23">
         <v>7240438.0</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="24">
         <f t="shared" si="2"/>
         <v>0.5361447747</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="23">
         <v>2816427.0</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="23">
         <v>9766251.0</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="25">
         <f t="shared" si="3"/>
         <v>0.2883836387</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="23">
         <v>3451571.0</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="23">
         <v>4.4642805E7</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="26">
         <f t="shared" si="4"/>
         <v>0.0773152807</v>
       </c>
@@ -6036,2987 +5940,2987 @@
         <f t="shared" si="12"/>
         <v>61649494</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="27">
         <f t="shared" si="6"/>
         <v>0.1646391615</v>
       </c>
-      <c r="O13" s="34"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14">
-      <c r="O14" s="34"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15">
-      <c r="H15" s="35"/>
-      <c r="O15" s="34"/>
+      <c r="H15" s="29"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="O16" s="34"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17">
-      <c r="O17" s="34"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18">
-      <c r="O18" s="34"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19">
-      <c r="O19" s="34"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20">
-      <c r="O20" s="34"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21">
-      <c r="O21" s="34"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22">
-      <c r="O22" s="34"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23">
-      <c r="O23" s="34"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24">
-      <c r="O24" s="34"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="O25" s="34"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="O26" s="34"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="O27" s="34"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="O28" s="34"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="O29" s="34"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="O30" s="34"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="O31" s="34"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="O32" s="34"/>
+      <c r="O32" s="28"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="O33" s="34"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="O34" s="34"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="O35" s="34"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="O36" s="34"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="O37" s="34"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="O38" s="34"/>
+      <c r="O38" s="28"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="O39" s="34"/>
+      <c r="O39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="O40" s="34"/>
+      <c r="O40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="O41" s="34"/>
+      <c r="O41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="O42" s="34"/>
+      <c r="O42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="O43" s="34"/>
+      <c r="O43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="O44" s="34"/>
+      <c r="O44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="O45" s="34"/>
+      <c r="O45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="O46" s="34"/>
+      <c r="O46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="O47" s="34"/>
+      <c r="O47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="O48" s="34"/>
+      <c r="O48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="O49" s="34"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="O50" s="34"/>
+      <c r="O50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="O51" s="34"/>
+      <c r="O51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="O52" s="34"/>
+      <c r="O52" s="28"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="O53" s="34"/>
+      <c r="O53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="O54" s="34"/>
+      <c r="O54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="O55" s="34"/>
+      <c r="O55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="O56" s="34"/>
+      <c r="O56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="O57" s="34"/>
+      <c r="O57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="O58" s="34"/>
+      <c r="O58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="O59" s="34"/>
+      <c r="O59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="O60" s="34"/>
+      <c r="O60" s="28"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="O61" s="34"/>
+      <c r="O61" s="28"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="O62" s="34"/>
+      <c r="O62" s="28"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="O63" s="34"/>
+      <c r="O63" s="28"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="O64" s="34"/>
+      <c r="O64" s="28"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="O65" s="34"/>
+      <c r="O65" s="28"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="O66" s="34"/>
+      <c r="O66" s="28"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="O67" s="34"/>
+      <c r="O67" s="28"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="O68" s="34"/>
+      <c r="O68" s="28"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="O69" s="34"/>
+      <c r="O69" s="28"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="O70" s="34"/>
+      <c r="O70" s="28"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="O71" s="34"/>
+      <c r="O71" s="28"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="O72" s="34"/>
+      <c r="O72" s="28"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="O73" s="34"/>
+      <c r="O73" s="28"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="O74" s="34"/>
+      <c r="O74" s="28"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="O75" s="34"/>
+      <c r="O75" s="28"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="O76" s="34"/>
+      <c r="O76" s="28"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="O77" s="34"/>
+      <c r="O77" s="28"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="O78" s="34"/>
+      <c r="O78" s="28"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="O79" s="34"/>
+      <c r="O79" s="28"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="O80" s="34"/>
+      <c r="O80" s="28"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="O81" s="34"/>
+      <c r="O81" s="28"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="O82" s="34"/>
+      <c r="O82" s="28"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="O83" s="34"/>
+      <c r="O83" s="28"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="O84" s="34"/>
+      <c r="O84" s="28"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="O85" s="34"/>
+      <c r="O85" s="28"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="O86" s="34"/>
+      <c r="O86" s="28"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="O87" s="34"/>
+      <c r="O87" s="28"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="O88" s="34"/>
+      <c r="O88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="O89" s="34"/>
+      <c r="O89" s="28"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="O90" s="34"/>
+      <c r="O90" s="28"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="O91" s="34"/>
+      <c r="O91" s="28"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="O92" s="34"/>
+      <c r="O92" s="28"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="O93" s="34"/>
+      <c r="O93" s="28"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="O94" s="34"/>
+      <c r="O94" s="28"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="O95" s="34"/>
+      <c r="O95" s="28"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="O96" s="34"/>
+      <c r="O96" s="28"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="O97" s="34"/>
+      <c r="O97" s="28"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="O98" s="34"/>
+      <c r="O98" s="28"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="O99" s="34"/>
+      <c r="O99" s="28"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="O100" s="34"/>
+      <c r="O100" s="28"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="O101" s="34"/>
+      <c r="O101" s="28"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="O102" s="34"/>
+      <c r="O102" s="28"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="O103" s="34"/>
+      <c r="O103" s="28"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="O104" s="34"/>
+      <c r="O104" s="28"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="O105" s="34"/>
+      <c r="O105" s="28"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="O106" s="34"/>
+      <c r="O106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="O107" s="34"/>
+      <c r="O107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="O108" s="34"/>
+      <c r="O108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="O109" s="34"/>
+      <c r="O109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="O110" s="34"/>
+      <c r="O110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="O111" s="34"/>
+      <c r="O111" s="28"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="O112" s="34"/>
+      <c r="O112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="O113" s="34"/>
+      <c r="O113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="O114" s="34"/>
+      <c r="O114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="O115" s="34"/>
+      <c r="O115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="O116" s="34"/>
+      <c r="O116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="O117" s="34"/>
+      <c r="O117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="O118" s="34"/>
+      <c r="O118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="O119" s="34"/>
+      <c r="O119" s="28"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="O120" s="34"/>
+      <c r="O120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="O121" s="34"/>
+      <c r="O121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="O122" s="34"/>
+      <c r="O122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="O123" s="34"/>
+      <c r="O123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="O124" s="34"/>
+      <c r="O124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="O125" s="34"/>
+      <c r="O125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="O126" s="34"/>
+      <c r="O126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="O127" s="34"/>
+      <c r="O127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="O128" s="34"/>
+      <c r="O128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="O129" s="34"/>
+      <c r="O129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="O130" s="34"/>
+      <c r="O130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="O131" s="34"/>
+      <c r="O131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="O132" s="34"/>
+      <c r="O132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="O133" s="34"/>
+      <c r="O133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="O134" s="34"/>
+      <c r="O134" s="28"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="O135" s="34"/>
+      <c r="O135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="O136" s="34"/>
+      <c r="O136" s="28"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="O137" s="34"/>
+      <c r="O137" s="28"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="O138" s="34"/>
+      <c r="O138" s="28"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="O139" s="34"/>
+      <c r="O139" s="28"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="O140" s="34"/>
+      <c r="O140" s="28"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="O141" s="34"/>
+      <c r="O141" s="28"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="O142" s="34"/>
+      <c r="O142" s="28"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="O143" s="34"/>
+      <c r="O143" s="28"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="O144" s="34"/>
+      <c r="O144" s="28"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="O145" s="34"/>
+      <c r="O145" s="28"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="O146" s="34"/>
+      <c r="O146" s="28"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="O147" s="34"/>
+      <c r="O147" s="28"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="O148" s="34"/>
+      <c r="O148" s="28"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="O149" s="34"/>
+      <c r="O149" s="28"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="O150" s="34"/>
+      <c r="O150" s="28"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="O151" s="34"/>
+      <c r="O151" s="28"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="O152" s="34"/>
+      <c r="O152" s="28"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="O153" s="34"/>
+      <c r="O153" s="28"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="O154" s="34"/>
+      <c r="O154" s="28"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="O155" s="34"/>
+      <c r="O155" s="28"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="O156" s="34"/>
+      <c r="O156" s="28"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="O157" s="34"/>
+      <c r="O157" s="28"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="O158" s="34"/>
+      <c r="O158" s="28"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="O159" s="34"/>
+      <c r="O159" s="28"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="O160" s="34"/>
+      <c r="O160" s="28"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="O161" s="34"/>
+      <c r="O161" s="28"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="O162" s="34"/>
+      <c r="O162" s="28"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="O163" s="34"/>
+      <c r="O163" s="28"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="O164" s="34"/>
+      <c r="O164" s="28"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="O165" s="34"/>
+      <c r="O165" s="28"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="O166" s="34"/>
+      <c r="O166" s="28"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="O167" s="34"/>
+      <c r="O167" s="28"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="O168" s="34"/>
+      <c r="O168" s="28"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="O169" s="34"/>
+      <c r="O169" s="28"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="O170" s="34"/>
+      <c r="O170" s="28"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="O171" s="34"/>
+      <c r="O171" s="28"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="O172" s="34"/>
+      <c r="O172" s="28"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="O173" s="34"/>
+      <c r="O173" s="28"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="O174" s="34"/>
+      <c r="O174" s="28"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="O175" s="34"/>
+      <c r="O175" s="28"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="O176" s="34"/>
+      <c r="O176" s="28"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="O177" s="34"/>
+      <c r="O177" s="28"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="O178" s="34"/>
+      <c r="O178" s="28"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="O179" s="34"/>
+      <c r="O179" s="28"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="O180" s="34"/>
+      <c r="O180" s="28"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="O181" s="34"/>
+      <c r="O181" s="28"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="O182" s="34"/>
+      <c r="O182" s="28"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="O183" s="34"/>
+      <c r="O183" s="28"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="O184" s="34"/>
+      <c r="O184" s="28"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="O185" s="34"/>
+      <c r="O185" s="28"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="O186" s="34"/>
+      <c r="O186" s="28"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="O187" s="34"/>
+      <c r="O187" s="28"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="O188" s="34"/>
+      <c r="O188" s="28"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="O189" s="34"/>
+      <c r="O189" s="28"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="O190" s="34"/>
+      <c r="O190" s="28"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="O191" s="34"/>
+      <c r="O191" s="28"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="O192" s="34"/>
+      <c r="O192" s="28"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="O193" s="34"/>
+      <c r="O193" s="28"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="O194" s="34"/>
+      <c r="O194" s="28"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="O195" s="34"/>
+      <c r="O195" s="28"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="O196" s="34"/>
+      <c r="O196" s="28"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="O197" s="34"/>
+      <c r="O197" s="28"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="O198" s="34"/>
+      <c r="O198" s="28"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="O199" s="34"/>
+      <c r="O199" s="28"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="O200" s="34"/>
+      <c r="O200" s="28"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="O201" s="34"/>
+      <c r="O201" s="28"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="O202" s="34"/>
+      <c r="O202" s="28"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="O203" s="34"/>
+      <c r="O203" s="28"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="O204" s="34"/>
+      <c r="O204" s="28"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="O205" s="34"/>
+      <c r="O205" s="28"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="O206" s="34"/>
+      <c r="O206" s="28"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="O207" s="34"/>
+      <c r="O207" s="28"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="O208" s="34"/>
+      <c r="O208" s="28"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="O209" s="34"/>
+      <c r="O209" s="28"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="O210" s="34"/>
+      <c r="O210" s="28"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="O211" s="34"/>
+      <c r="O211" s="28"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="O212" s="34"/>
+      <c r="O212" s="28"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="O213" s="34"/>
+      <c r="O213" s="28"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="O214" s="34"/>
+      <c r="O214" s="28"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="O215" s="34"/>
+      <c r="O215" s="28"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="O216" s="34"/>
+      <c r="O216" s="28"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="O217" s="34"/>
+      <c r="O217" s="28"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="O218" s="34"/>
+      <c r="O218" s="28"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="O219" s="34"/>
+      <c r="O219" s="28"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="O220" s="34"/>
+      <c r="O220" s="28"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="O221" s="34"/>
+      <c r="O221" s="28"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="O222" s="34"/>
+      <c r="O222" s="28"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="O223" s="34"/>
+      <c r="O223" s="28"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="O224" s="34"/>
+      <c r="O224" s="28"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="O225" s="34"/>
+      <c r="O225" s="28"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="O226" s="34"/>
+      <c r="O226" s="28"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="O227" s="34"/>
+      <c r="O227" s="28"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="O228" s="34"/>
+      <c r="O228" s="28"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="O229" s="34"/>
+      <c r="O229" s="28"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="O230" s="34"/>
+      <c r="O230" s="28"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="O231" s="34"/>
+      <c r="O231" s="28"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="O232" s="34"/>
+      <c r="O232" s="28"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="O233" s="34"/>
+      <c r="O233" s="28"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="O234" s="34"/>
+      <c r="O234" s="28"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="O235" s="34"/>
+      <c r="O235" s="28"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="O236" s="34"/>
+      <c r="O236" s="28"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="O237" s="34"/>
+      <c r="O237" s="28"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="O238" s="34"/>
+      <c r="O238" s="28"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="O239" s="34"/>
+      <c r="O239" s="28"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="O240" s="34"/>
+      <c r="O240" s="28"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="O241" s="34"/>
+      <c r="O241" s="28"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="O242" s="34"/>
+      <c r="O242" s="28"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="O243" s="34"/>
+      <c r="O243" s="28"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="O244" s="34"/>
+      <c r="O244" s="28"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="O245" s="34"/>
+      <c r="O245" s="28"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="O246" s="34"/>
+      <c r="O246" s="28"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="O247" s="34"/>
+      <c r="O247" s="28"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="O248" s="34"/>
+      <c r="O248" s="28"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="O249" s="34"/>
+      <c r="O249" s="28"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="O250" s="34"/>
+      <c r="O250" s="28"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="O251" s="34"/>
+      <c r="O251" s="28"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="O252" s="34"/>
+      <c r="O252" s="28"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="O253" s="34"/>
+      <c r="O253" s="28"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="O254" s="34"/>
+      <c r="O254" s="28"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="O255" s="34"/>
+      <c r="O255" s="28"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="O256" s="34"/>
+      <c r="O256" s="28"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="O257" s="34"/>
+      <c r="O257" s="28"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="O258" s="34"/>
+      <c r="O258" s="28"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="O259" s="34"/>
+      <c r="O259" s="28"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="O260" s="34"/>
+      <c r="O260" s="28"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="O261" s="34"/>
+      <c r="O261" s="28"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="O262" s="34"/>
+      <c r="O262" s="28"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="O263" s="34"/>
+      <c r="O263" s="28"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="O264" s="34"/>
+      <c r="O264" s="28"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="O265" s="34"/>
+      <c r="O265" s="28"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="O266" s="34"/>
+      <c r="O266" s="28"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="O267" s="34"/>
+      <c r="O267" s="28"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="O268" s="34"/>
+      <c r="O268" s="28"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="O269" s="34"/>
+      <c r="O269" s="28"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="O270" s="34"/>
+      <c r="O270" s="28"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="O271" s="34"/>
+      <c r="O271" s="28"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="O272" s="34"/>
+      <c r="O272" s="28"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="O273" s="34"/>
+      <c r="O273" s="28"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="O274" s="34"/>
+      <c r="O274" s="28"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="O275" s="34"/>
+      <c r="O275" s="28"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="O276" s="34"/>
+      <c r="O276" s="28"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="O277" s="34"/>
+      <c r="O277" s="28"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="O278" s="34"/>
+      <c r="O278" s="28"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="O279" s="34"/>
+      <c r="O279" s="28"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="O280" s="34"/>
+      <c r="O280" s="28"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="O281" s="34"/>
+      <c r="O281" s="28"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="O282" s="34"/>
+      <c r="O282" s="28"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="O283" s="34"/>
+      <c r="O283" s="28"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="O284" s="34"/>
+      <c r="O284" s="28"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="O285" s="34"/>
+      <c r="O285" s="28"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="O286" s="34"/>
+      <c r="O286" s="28"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="O287" s="34"/>
+      <c r="O287" s="28"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="O288" s="34"/>
+      <c r="O288" s="28"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="O289" s="34"/>
+      <c r="O289" s="28"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="O290" s="34"/>
+      <c r="O290" s="28"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="O291" s="34"/>
+      <c r="O291" s="28"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="O292" s="34"/>
+      <c r="O292" s="28"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="O293" s="34"/>
+      <c r="O293" s="28"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="O294" s="34"/>
+      <c r="O294" s="28"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="O295" s="34"/>
+      <c r="O295" s="28"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="O296" s="34"/>
+      <c r="O296" s="28"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="O297" s="34"/>
+      <c r="O297" s="28"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="O298" s="34"/>
+      <c r="O298" s="28"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="O299" s="34"/>
+      <c r="O299" s="28"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="O300" s="34"/>
+      <c r="O300" s="28"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="O301" s="34"/>
+      <c r="O301" s="28"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="O302" s="34"/>
+      <c r="O302" s="28"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="O303" s="34"/>
+      <c r="O303" s="28"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="O304" s="34"/>
+      <c r="O304" s="28"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="O305" s="34"/>
+      <c r="O305" s="28"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="O306" s="34"/>
+      <c r="O306" s="28"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="O307" s="34"/>
+      <c r="O307" s="28"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="O308" s="34"/>
+      <c r="O308" s="28"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="O309" s="34"/>
+      <c r="O309" s="28"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="O310" s="34"/>
+      <c r="O310" s="28"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="O311" s="34"/>
+      <c r="O311" s="28"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="O312" s="34"/>
+      <c r="O312" s="28"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="O313" s="34"/>
+      <c r="O313" s="28"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="O314" s="34"/>
+      <c r="O314" s="28"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="O315" s="34"/>
+      <c r="O315" s="28"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="O316" s="34"/>
+      <c r="O316" s="28"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="O317" s="34"/>
+      <c r="O317" s="28"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="O318" s="34"/>
+      <c r="O318" s="28"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="O319" s="34"/>
+      <c r="O319" s="28"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="O320" s="34"/>
+      <c r="O320" s="28"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="O321" s="34"/>
+      <c r="O321" s="28"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="O322" s="34"/>
+      <c r="O322" s="28"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="O323" s="34"/>
+      <c r="O323" s="28"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="O324" s="34"/>
+      <c r="O324" s="28"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="O325" s="34"/>
+      <c r="O325" s="28"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="O326" s="34"/>
+      <c r="O326" s="28"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="O327" s="34"/>
+      <c r="O327" s="28"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="O328" s="34"/>
+      <c r="O328" s="28"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="O329" s="34"/>
+      <c r="O329" s="28"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="O330" s="34"/>
+      <c r="O330" s="28"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="O331" s="34"/>
+      <c r="O331" s="28"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="O332" s="34"/>
+      <c r="O332" s="28"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="O333" s="34"/>
+      <c r="O333" s="28"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="O334" s="34"/>
+      <c r="O334" s="28"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="O335" s="34"/>
+      <c r="O335" s="28"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="O336" s="34"/>
+      <c r="O336" s="28"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="O337" s="34"/>
+      <c r="O337" s="28"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="O338" s="34"/>
+      <c r="O338" s="28"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="O339" s="34"/>
+      <c r="O339" s="28"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="O340" s="34"/>
+      <c r="O340" s="28"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="O341" s="34"/>
+      <c r="O341" s="28"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="O342" s="34"/>
+      <c r="O342" s="28"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="O343" s="34"/>
+      <c r="O343" s="28"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="O344" s="34"/>
+      <c r="O344" s="28"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="O345" s="34"/>
+      <c r="O345" s="28"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="O346" s="34"/>
+      <c r="O346" s="28"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="O347" s="34"/>
+      <c r="O347" s="28"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="O348" s="34"/>
+      <c r="O348" s="28"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="O349" s="34"/>
+      <c r="O349" s="28"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="O350" s="34"/>
+      <c r="O350" s="28"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="O351" s="34"/>
+      <c r="O351" s="28"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="O352" s="34"/>
+      <c r="O352" s="28"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="O353" s="34"/>
+      <c r="O353" s="28"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="O354" s="34"/>
+      <c r="O354" s="28"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="O355" s="34"/>
+      <c r="O355" s="28"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="O356" s="34"/>
+      <c r="O356" s="28"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="O357" s="34"/>
+      <c r="O357" s="28"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="O358" s="34"/>
+      <c r="O358" s="28"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="O359" s="34"/>
+      <c r="O359" s="28"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="O360" s="34"/>
+      <c r="O360" s="28"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="O361" s="34"/>
+      <c r="O361" s="28"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="O362" s="34"/>
+      <c r="O362" s="28"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="O363" s="34"/>
+      <c r="O363" s="28"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="O364" s="34"/>
+      <c r="O364" s="28"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="O365" s="34"/>
+      <c r="O365" s="28"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="O366" s="34"/>
+      <c r="O366" s="28"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="O367" s="34"/>
+      <c r="O367" s="28"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="O368" s="34"/>
+      <c r="O368" s="28"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="O369" s="34"/>
+      <c r="O369" s="28"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="O370" s="34"/>
+      <c r="O370" s="28"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="O371" s="34"/>
+      <c r="O371" s="28"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="O372" s="34"/>
+      <c r="O372" s="28"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="O373" s="34"/>
+      <c r="O373" s="28"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="O374" s="34"/>
+      <c r="O374" s="28"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="O375" s="34"/>
+      <c r="O375" s="28"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="O376" s="34"/>
+      <c r="O376" s="28"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="O377" s="34"/>
+      <c r="O377" s="28"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="O378" s="34"/>
+      <c r="O378" s="28"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="O379" s="34"/>
+      <c r="O379" s="28"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="O380" s="34"/>
+      <c r="O380" s="28"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="O381" s="34"/>
+      <c r="O381" s="28"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="O382" s="34"/>
+      <c r="O382" s="28"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="O383" s="34"/>
+      <c r="O383" s="28"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="O384" s="34"/>
+      <c r="O384" s="28"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="O385" s="34"/>
+      <c r="O385" s="28"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="O386" s="34"/>
+      <c r="O386" s="28"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="O387" s="34"/>
+      <c r="O387" s="28"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="O388" s="34"/>
+      <c r="O388" s="28"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="O389" s="34"/>
+      <c r="O389" s="28"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="O390" s="34"/>
+      <c r="O390" s="28"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="O391" s="34"/>
+      <c r="O391" s="28"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="O392" s="34"/>
+      <c r="O392" s="28"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="O393" s="34"/>
+      <c r="O393" s="28"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="O394" s="34"/>
+      <c r="O394" s="28"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="O395" s="34"/>
+      <c r="O395" s="28"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="O396" s="34"/>
+      <c r="O396" s="28"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="O397" s="34"/>
+      <c r="O397" s="28"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="O398" s="34"/>
+      <c r="O398" s="28"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="O399" s="34"/>
+      <c r="O399" s="28"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="O400" s="34"/>
+      <c r="O400" s="28"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="O401" s="34"/>
+      <c r="O401" s="28"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="O402" s="34"/>
+      <c r="O402" s="28"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="O403" s="34"/>
+      <c r="O403" s="28"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="O404" s="34"/>
+      <c r="O404" s="28"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="O405" s="34"/>
+      <c r="O405" s="28"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="O406" s="34"/>
+      <c r="O406" s="28"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="O407" s="34"/>
+      <c r="O407" s="28"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="O408" s="34"/>
+      <c r="O408" s="28"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="O409" s="34"/>
+      <c r="O409" s="28"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="O410" s="34"/>
+      <c r="O410" s="28"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="O411" s="34"/>
+      <c r="O411" s="28"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="O412" s="34"/>
+      <c r="O412" s="28"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="O413" s="34"/>
+      <c r="O413" s="28"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="O414" s="34"/>
+      <c r="O414" s="28"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="O415" s="34"/>
+      <c r="O415" s="28"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="O416" s="34"/>
+      <c r="O416" s="28"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="O417" s="34"/>
+      <c r="O417" s="28"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="O418" s="34"/>
+      <c r="O418" s="28"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="O419" s="34"/>
+      <c r="O419" s="28"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="O420" s="34"/>
+      <c r="O420" s="28"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="O421" s="34"/>
+      <c r="O421" s="28"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="O422" s="34"/>
+      <c r="O422" s="28"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="O423" s="34"/>
+      <c r="O423" s="28"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="O424" s="34"/>
+      <c r="O424" s="28"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="O425" s="34"/>
+      <c r="O425" s="28"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="O426" s="34"/>
+      <c r="O426" s="28"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="O427" s="34"/>
+      <c r="O427" s="28"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="O428" s="34"/>
+      <c r="O428" s="28"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="O429" s="34"/>
+      <c r="O429" s="28"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="O430" s="34"/>
+      <c r="O430" s="28"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="O431" s="34"/>
+      <c r="O431" s="28"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="O432" s="34"/>
+      <c r="O432" s="28"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="O433" s="34"/>
+      <c r="O433" s="28"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="O434" s="34"/>
+      <c r="O434" s="28"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="O435" s="34"/>
+      <c r="O435" s="28"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="O436" s="34"/>
+      <c r="O436" s="28"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="O437" s="34"/>
+      <c r="O437" s="28"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="O438" s="34"/>
+      <c r="O438" s="28"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="O439" s="34"/>
+      <c r="O439" s="28"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="O440" s="34"/>
+      <c r="O440" s="28"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="O441" s="34"/>
+      <c r="O441" s="28"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="O442" s="34"/>
+      <c r="O442" s="28"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="O443" s="34"/>
+      <c r="O443" s="28"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="O444" s="34"/>
+      <c r="O444" s="28"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="O445" s="34"/>
+      <c r="O445" s="28"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="O446" s="34"/>
+      <c r="O446" s="28"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="O447" s="34"/>
+      <c r="O447" s="28"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="O448" s="34"/>
+      <c r="O448" s="28"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="O449" s="34"/>
+      <c r="O449" s="28"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="O450" s="34"/>
+      <c r="O450" s="28"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="O451" s="34"/>
+      <c r="O451" s="28"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="O452" s="34"/>
+      <c r="O452" s="28"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="O453" s="34"/>
+      <c r="O453" s="28"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="O454" s="34"/>
+      <c r="O454" s="28"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="O455" s="34"/>
+      <c r="O455" s="28"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="O456" s="34"/>
+      <c r="O456" s="28"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="O457" s="34"/>
+      <c r="O457" s="28"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="O458" s="34"/>
+      <c r="O458" s="28"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="O459" s="34"/>
+      <c r="O459" s="28"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="O460" s="34"/>
+      <c r="O460" s="28"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="O461" s="34"/>
+      <c r="O461" s="28"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="O462" s="34"/>
+      <c r="O462" s="28"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="O463" s="34"/>
+      <c r="O463" s="28"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="O464" s="34"/>
+      <c r="O464" s="28"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="O465" s="34"/>
+      <c r="O465" s="28"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="O466" s="34"/>
+      <c r="O466" s="28"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="O467" s="34"/>
+      <c r="O467" s="28"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="O468" s="34"/>
+      <c r="O468" s="28"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="O469" s="34"/>
+      <c r="O469" s="28"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="O470" s="34"/>
+      <c r="O470" s="28"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="O471" s="34"/>
+      <c r="O471" s="28"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="O472" s="34"/>
+      <c r="O472" s="28"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="O473" s="34"/>
+      <c r="O473" s="28"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="O474" s="34"/>
+      <c r="O474" s="28"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="O475" s="34"/>
+      <c r="O475" s="28"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="O476" s="34"/>
+      <c r="O476" s="28"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="O477" s="34"/>
+      <c r="O477" s="28"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="O478" s="34"/>
+      <c r="O478" s="28"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="O479" s="34"/>
+      <c r="O479" s="28"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="O480" s="34"/>
+      <c r="O480" s="28"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="O481" s="34"/>
+      <c r="O481" s="28"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="O482" s="34"/>
+      <c r="O482" s="28"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="O483" s="34"/>
+      <c r="O483" s="28"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="O484" s="34"/>
+      <c r="O484" s="28"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="O485" s="34"/>
+      <c r="O485" s="28"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="O486" s="34"/>
+      <c r="O486" s="28"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="O487" s="34"/>
+      <c r="O487" s="28"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="O488" s="34"/>
+      <c r="O488" s="28"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="O489" s="34"/>
+      <c r="O489" s="28"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="O490" s="34"/>
+      <c r="O490" s="28"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="O491" s="34"/>
+      <c r="O491" s="28"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="O492" s="34"/>
+      <c r="O492" s="28"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="O493" s="34"/>
+      <c r="O493" s="28"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="O494" s="34"/>
+      <c r="O494" s="28"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="O495" s="34"/>
+      <c r="O495" s="28"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="O496" s="34"/>
+      <c r="O496" s="28"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="O497" s="34"/>
+      <c r="O497" s="28"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="O498" s="34"/>
+      <c r="O498" s="28"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="O499" s="34"/>
+      <c r="O499" s="28"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="O500" s="34"/>
+      <c r="O500" s="28"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="O501" s="34"/>
+      <c r="O501" s="28"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="O502" s="34"/>
+      <c r="O502" s="28"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="O503" s="34"/>
+      <c r="O503" s="28"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="O504" s="34"/>
+      <c r="O504" s="28"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="O505" s="34"/>
+      <c r="O505" s="28"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="O506" s="34"/>
+      <c r="O506" s="28"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="O507" s="34"/>
+      <c r="O507" s="28"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="O508" s="34"/>
+      <c r="O508" s="28"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="O509" s="34"/>
+      <c r="O509" s="28"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="O510" s="34"/>
+      <c r="O510" s="28"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="O511" s="34"/>
+      <c r="O511" s="28"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="O512" s="34"/>
+      <c r="O512" s="28"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="O513" s="34"/>
+      <c r="O513" s="28"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="O514" s="34"/>
+      <c r="O514" s="28"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="O515" s="34"/>
+      <c r="O515" s="28"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="O516" s="34"/>
+      <c r="O516" s="28"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="O517" s="34"/>
+      <c r="O517" s="28"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="O518" s="34"/>
+      <c r="O518" s="28"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="O519" s="34"/>
+      <c r="O519" s="28"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="O520" s="34"/>
+      <c r="O520" s="28"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="O521" s="34"/>
+      <c r="O521" s="28"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="O522" s="34"/>
+      <c r="O522" s="28"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="O523" s="34"/>
+      <c r="O523" s="28"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="O524" s="34"/>
+      <c r="O524" s="28"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="O525" s="34"/>
+      <c r="O525" s="28"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="O526" s="34"/>
+      <c r="O526" s="28"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="O527" s="34"/>
+      <c r="O527" s="28"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="O528" s="34"/>
+      <c r="O528" s="28"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="O529" s="34"/>
+      <c r="O529" s="28"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="O530" s="34"/>
+      <c r="O530" s="28"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="O531" s="34"/>
+      <c r="O531" s="28"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="O532" s="34"/>
+      <c r="O532" s="28"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="O533" s="34"/>
+      <c r="O533" s="28"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="O534" s="34"/>
+      <c r="O534" s="28"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="O535" s="34"/>
+      <c r="O535" s="28"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="O536" s="34"/>
+      <c r="O536" s="28"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="O537" s="34"/>
+      <c r="O537" s="28"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="O538" s="34"/>
+      <c r="O538" s="28"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="O539" s="34"/>
+      <c r="O539" s="28"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="O540" s="34"/>
+      <c r="O540" s="28"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="O541" s="34"/>
+      <c r="O541" s="28"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="O542" s="34"/>
+      <c r="O542" s="28"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="O543" s="34"/>
+      <c r="O543" s="28"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="O544" s="34"/>
+      <c r="O544" s="28"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="O545" s="34"/>
+      <c r="O545" s="28"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="O546" s="34"/>
+      <c r="O546" s="28"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="O547" s="34"/>
+      <c r="O547" s="28"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="O548" s="34"/>
+      <c r="O548" s="28"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="O549" s="34"/>
+      <c r="O549" s="28"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="O550" s="34"/>
+      <c r="O550" s="28"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="O551" s="34"/>
+      <c r="O551" s="28"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="O552" s="34"/>
+      <c r="O552" s="28"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="O553" s="34"/>
+      <c r="O553" s="28"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="O554" s="34"/>
+      <c r="O554" s="28"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="O555" s="34"/>
+      <c r="O555" s="28"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="O556" s="34"/>
+      <c r="O556" s="28"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="O557" s="34"/>
+      <c r="O557" s="28"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="O558" s="34"/>
+      <c r="O558" s="28"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="O559" s="34"/>
+      <c r="O559" s="28"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="O560" s="34"/>
+      <c r="O560" s="28"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="O561" s="34"/>
+      <c r="O561" s="28"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="O562" s="34"/>
+      <c r="O562" s="28"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="O563" s="34"/>
+      <c r="O563" s="28"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="O564" s="34"/>
+      <c r="O564" s="28"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="O565" s="34"/>
+      <c r="O565" s="28"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="O566" s="34"/>
+      <c r="O566" s="28"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="O567" s="34"/>
+      <c r="O567" s="28"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="O568" s="34"/>
+      <c r="O568" s="28"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="O569" s="34"/>
+      <c r="O569" s="28"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="O570" s="34"/>
+      <c r="O570" s="28"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="O571" s="34"/>
+      <c r="O571" s="28"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="O572" s="34"/>
+      <c r="O572" s="28"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="O573" s="34"/>
+      <c r="O573" s="28"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="O574" s="34"/>
+      <c r="O574" s="28"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="O575" s="34"/>
+      <c r="O575" s="28"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="O576" s="34"/>
+      <c r="O576" s="28"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="O577" s="34"/>
+      <c r="O577" s="28"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="O578" s="34"/>
+      <c r="O578" s="28"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="O579" s="34"/>
+      <c r="O579" s="28"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="O580" s="34"/>
+      <c r="O580" s="28"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="O581" s="34"/>
+      <c r="O581" s="28"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="O582" s="34"/>
+      <c r="O582" s="28"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="O583" s="34"/>
+      <c r="O583" s="28"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="O584" s="34"/>
+      <c r="O584" s="28"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="O585" s="34"/>
+      <c r="O585" s="28"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="O586" s="34"/>
+      <c r="O586" s="28"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="O587" s="34"/>
+      <c r="O587" s="28"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="O588" s="34"/>
+      <c r="O588" s="28"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="O589" s="34"/>
+      <c r="O589" s="28"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="O590" s="34"/>
+      <c r="O590" s="28"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="O591" s="34"/>
+      <c r="O591" s="28"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="O592" s="34"/>
+      <c r="O592" s="28"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="O593" s="34"/>
+      <c r="O593" s="28"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="O594" s="34"/>
+      <c r="O594" s="28"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="O595" s="34"/>
+      <c r="O595" s="28"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="O596" s="34"/>
+      <c r="O596" s="28"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="O597" s="34"/>
+      <c r="O597" s="28"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="O598" s="34"/>
+      <c r="O598" s="28"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="O599" s="34"/>
+      <c r="O599" s="28"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="O600" s="34"/>
+      <c r="O600" s="28"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="O601" s="34"/>
+      <c r="O601" s="28"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="O602" s="34"/>
+      <c r="O602" s="28"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="O603" s="34"/>
+      <c r="O603" s="28"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="O604" s="34"/>
+      <c r="O604" s="28"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="O605" s="34"/>
+      <c r="O605" s="28"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="O606" s="34"/>
+      <c r="O606" s="28"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="O607" s="34"/>
+      <c r="O607" s="28"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="O608" s="34"/>
+      <c r="O608" s="28"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="O609" s="34"/>
+      <c r="O609" s="28"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="O610" s="34"/>
+      <c r="O610" s="28"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="O611" s="34"/>
+      <c r="O611" s="28"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="O612" s="34"/>
+      <c r="O612" s="28"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="O613" s="34"/>
+      <c r="O613" s="28"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="O614" s="34"/>
+      <c r="O614" s="28"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="O615" s="34"/>
+      <c r="O615" s="28"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="O616" s="34"/>
+      <c r="O616" s="28"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="O617" s="34"/>
+      <c r="O617" s="28"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="O618" s="34"/>
+      <c r="O618" s="28"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="O619" s="34"/>
+      <c r="O619" s="28"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="O620" s="34"/>
+      <c r="O620" s="28"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="O621" s="34"/>
+      <c r="O621" s="28"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="O622" s="34"/>
+      <c r="O622" s="28"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="O623" s="34"/>
+      <c r="O623" s="28"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="O624" s="34"/>
+      <c r="O624" s="28"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="O625" s="34"/>
+      <c r="O625" s="28"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="O626" s="34"/>
+      <c r="O626" s="28"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="O627" s="34"/>
+      <c r="O627" s="28"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="O628" s="34"/>
+      <c r="O628" s="28"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="O629" s="34"/>
+      <c r="O629" s="28"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="O630" s="34"/>
+      <c r="O630" s="28"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="O631" s="34"/>
+      <c r="O631" s="28"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="O632" s="34"/>
+      <c r="O632" s="28"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="O633" s="34"/>
+      <c r="O633" s="28"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="O634" s="34"/>
+      <c r="O634" s="28"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="O635" s="34"/>
+      <c r="O635" s="28"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="O636" s="34"/>
+      <c r="O636" s="28"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="O637" s="34"/>
+      <c r="O637" s="28"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="O638" s="34"/>
+      <c r="O638" s="28"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="O639" s="34"/>
+      <c r="O639" s="28"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="O640" s="34"/>
+      <c r="O640" s="28"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="O641" s="34"/>
+      <c r="O641" s="28"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="O642" s="34"/>
+      <c r="O642" s="28"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="O643" s="34"/>
+      <c r="O643" s="28"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="O644" s="34"/>
+      <c r="O644" s="28"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="O645" s="34"/>
+      <c r="O645" s="28"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="O646" s="34"/>
+      <c r="O646" s="28"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="O647" s="34"/>
+      <c r="O647" s="28"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="O648" s="34"/>
+      <c r="O648" s="28"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="O649" s="34"/>
+      <c r="O649" s="28"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="O650" s="34"/>
+      <c r="O650" s="28"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="O651" s="34"/>
+      <c r="O651" s="28"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="O652" s="34"/>
+      <c r="O652" s="28"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="O653" s="34"/>
+      <c r="O653" s="28"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="O654" s="34"/>
+      <c r="O654" s="28"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="O655" s="34"/>
+      <c r="O655" s="28"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="O656" s="34"/>
+      <c r="O656" s="28"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="O657" s="34"/>
+      <c r="O657" s="28"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="O658" s="34"/>
+      <c r="O658" s="28"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="O659" s="34"/>
+      <c r="O659" s="28"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="O660" s="34"/>
+      <c r="O660" s="28"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="O661" s="34"/>
+      <c r="O661" s="28"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="O662" s="34"/>
+      <c r="O662" s="28"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="O663" s="34"/>
+      <c r="O663" s="28"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="O664" s="34"/>
+      <c r="O664" s="28"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="O665" s="34"/>
+      <c r="O665" s="28"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="O666" s="34"/>
+      <c r="O666" s="28"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="O667" s="34"/>
+      <c r="O667" s="28"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="O668" s="34"/>
+      <c r="O668" s="28"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="O669" s="34"/>
+      <c r="O669" s="28"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="O670" s="34"/>
+      <c r="O670" s="28"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="O671" s="34"/>
+      <c r="O671" s="28"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="O672" s="34"/>
+      <c r="O672" s="28"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="O673" s="34"/>
+      <c r="O673" s="28"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="O674" s="34"/>
+      <c r="O674" s="28"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="O675" s="34"/>
+      <c r="O675" s="28"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="O676" s="34"/>
+      <c r="O676" s="28"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="O677" s="34"/>
+      <c r="O677" s="28"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="O678" s="34"/>
+      <c r="O678" s="28"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="O679" s="34"/>
+      <c r="O679" s="28"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="O680" s="34"/>
+      <c r="O680" s="28"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="O681" s="34"/>
+      <c r="O681" s="28"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="O682" s="34"/>
+      <c r="O682" s="28"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="O683" s="34"/>
+      <c r="O683" s="28"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="O684" s="34"/>
+      <c r="O684" s="28"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="O685" s="34"/>
+      <c r="O685" s="28"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="O686" s="34"/>
+      <c r="O686" s="28"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="O687" s="34"/>
+      <c r="O687" s="28"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="O688" s="34"/>
+      <c r="O688" s="28"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="O689" s="34"/>
+      <c r="O689" s="28"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="O690" s="34"/>
+      <c r="O690" s="28"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="O691" s="34"/>
+      <c r="O691" s="28"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="O692" s="34"/>
+      <c r="O692" s="28"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="O693" s="34"/>
+      <c r="O693" s="28"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="O694" s="34"/>
+      <c r="O694" s="28"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="O695" s="34"/>
+      <c r="O695" s="28"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="O696" s="34"/>
+      <c r="O696" s="28"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="O697" s="34"/>
+      <c r="O697" s="28"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="O698" s="34"/>
+      <c r="O698" s="28"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="O699" s="34"/>
+      <c r="O699" s="28"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="O700" s="34"/>
+      <c r="O700" s="28"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="O701" s="34"/>
+      <c r="O701" s="28"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="O702" s="34"/>
+      <c r="O702" s="28"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="O703" s="34"/>
+      <c r="O703" s="28"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="O704" s="34"/>
+      <c r="O704" s="28"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="O705" s="34"/>
+      <c r="O705" s="28"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="O706" s="34"/>
+      <c r="O706" s="28"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="O707" s="34"/>
+      <c r="O707" s="28"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="O708" s="34"/>
+      <c r="O708" s="28"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="O709" s="34"/>
+      <c r="O709" s="28"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="O710" s="34"/>
+      <c r="O710" s="28"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="O711" s="34"/>
+      <c r="O711" s="28"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="O712" s="34"/>
+      <c r="O712" s="28"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="O713" s="34"/>
+      <c r="O713" s="28"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="O714" s="34"/>
+      <c r="O714" s="28"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="O715" s="34"/>
+      <c r="O715" s="28"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="O716" s="34"/>
+      <c r="O716" s="28"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="O717" s="34"/>
+      <c r="O717" s="28"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="O718" s="34"/>
+      <c r="O718" s="28"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="O719" s="34"/>
+      <c r="O719" s="28"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="O720" s="34"/>
+      <c r="O720" s="28"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="O721" s="34"/>
+      <c r="O721" s="28"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="O722" s="34"/>
+      <c r="O722" s="28"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="O723" s="34"/>
+      <c r="O723" s="28"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="O724" s="34"/>
+      <c r="O724" s="28"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="O725" s="34"/>
+      <c r="O725" s="28"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="O726" s="34"/>
+      <c r="O726" s="28"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="O727" s="34"/>
+      <c r="O727" s="28"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="O728" s="34"/>
+      <c r="O728" s="28"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="O729" s="34"/>
+      <c r="O729" s="28"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="O730" s="34"/>
+      <c r="O730" s="28"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="O731" s="34"/>
+      <c r="O731" s="28"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="O732" s="34"/>
+      <c r="O732" s="28"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="O733" s="34"/>
+      <c r="O733" s="28"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="O734" s="34"/>
+      <c r="O734" s="28"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="O735" s="34"/>
+      <c r="O735" s="28"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="O736" s="34"/>
+      <c r="O736" s="28"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="O737" s="34"/>
+      <c r="O737" s="28"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="O738" s="34"/>
+      <c r="O738" s="28"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="O739" s="34"/>
+      <c r="O739" s="28"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="O740" s="34"/>
+      <c r="O740" s="28"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="O741" s="34"/>
+      <c r="O741" s="28"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="O742" s="34"/>
+      <c r="O742" s="28"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="O743" s="34"/>
+      <c r="O743" s="28"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="O744" s="34"/>
+      <c r="O744" s="28"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="O745" s="34"/>
+      <c r="O745" s="28"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="O746" s="34"/>
+      <c r="O746" s="28"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="O747" s="34"/>
+      <c r="O747" s="28"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="O748" s="34"/>
+      <c r="O748" s="28"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="O749" s="34"/>
+      <c r="O749" s="28"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="O750" s="34"/>
+      <c r="O750" s="28"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="O751" s="34"/>
+      <c r="O751" s="28"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="O752" s="34"/>
+      <c r="O752" s="28"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="O753" s="34"/>
+      <c r="O753" s="28"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="O754" s="34"/>
+      <c r="O754" s="28"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="O755" s="34"/>
+      <c r="O755" s="28"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="O756" s="34"/>
+      <c r="O756" s="28"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="O757" s="34"/>
+      <c r="O757" s="28"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="O758" s="34"/>
+      <c r="O758" s="28"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="O759" s="34"/>
+      <c r="O759" s="28"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="O760" s="34"/>
+      <c r="O760" s="28"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="O761" s="34"/>
+      <c r="O761" s="28"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="O762" s="34"/>
+      <c r="O762" s="28"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="O763" s="34"/>
+      <c r="O763" s="28"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="O764" s="34"/>
+      <c r="O764" s="28"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="O765" s="34"/>
+      <c r="O765" s="28"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="O766" s="34"/>
+      <c r="O766" s="28"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="O767" s="34"/>
+      <c r="O767" s="28"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="O768" s="34"/>
+      <c r="O768" s="28"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="O769" s="34"/>
+      <c r="O769" s="28"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="O770" s="34"/>
+      <c r="O770" s="28"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="O771" s="34"/>
+      <c r="O771" s="28"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="O772" s="34"/>
+      <c r="O772" s="28"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="O773" s="34"/>
+      <c r="O773" s="28"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="O774" s="34"/>
+      <c r="O774" s="28"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="O775" s="34"/>
+      <c r="O775" s="28"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="O776" s="34"/>
+      <c r="O776" s="28"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="O777" s="34"/>
+      <c r="O777" s="28"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="O778" s="34"/>
+      <c r="O778" s="28"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="O779" s="34"/>
+      <c r="O779" s="28"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="O780" s="34"/>
+      <c r="O780" s="28"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="O781" s="34"/>
+      <c r="O781" s="28"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="O782" s="34"/>
+      <c r="O782" s="28"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="O783" s="34"/>
+      <c r="O783" s="28"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="O784" s="34"/>
+      <c r="O784" s="28"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="O785" s="34"/>
+      <c r="O785" s="28"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="O786" s="34"/>
+      <c r="O786" s="28"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="O787" s="34"/>
+      <c r="O787" s="28"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="O788" s="34"/>
+      <c r="O788" s="28"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="O789" s="34"/>
+      <c r="O789" s="28"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="O790" s="34"/>
+      <c r="O790" s="28"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="O791" s="34"/>
+      <c r="O791" s="28"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="O792" s="34"/>
+      <c r="O792" s="28"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="O793" s="34"/>
+      <c r="O793" s="28"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="O794" s="34"/>
+      <c r="O794" s="28"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="O795" s="34"/>
+      <c r="O795" s="28"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="O796" s="34"/>
+      <c r="O796" s="28"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="O797" s="34"/>
+      <c r="O797" s="28"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="O798" s="34"/>
+      <c r="O798" s="28"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="O799" s="34"/>
+      <c r="O799" s="28"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="O800" s="34"/>
+      <c r="O800" s="28"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="O801" s="34"/>
+      <c r="O801" s="28"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="O802" s="34"/>
+      <c r="O802" s="28"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="O803" s="34"/>
+      <c r="O803" s="28"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="O804" s="34"/>
+      <c r="O804" s="28"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="O805" s="34"/>
+      <c r="O805" s="28"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="O806" s="34"/>
+      <c r="O806" s="28"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="O807" s="34"/>
+      <c r="O807" s="28"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="O808" s="34"/>
+      <c r="O808" s="28"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="O809" s="34"/>
+      <c r="O809" s="28"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="O810" s="34"/>
+      <c r="O810" s="28"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="O811" s="34"/>
+      <c r="O811" s="28"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="O812" s="34"/>
+      <c r="O812" s="28"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="O813" s="34"/>
+      <c r="O813" s="28"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="O814" s="34"/>
+      <c r="O814" s="28"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="O815" s="34"/>
+      <c r="O815" s="28"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="O816" s="34"/>
+      <c r="O816" s="28"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="O817" s="34"/>
+      <c r="O817" s="28"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="O818" s="34"/>
+      <c r="O818" s="28"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="O819" s="34"/>
+      <c r="O819" s="28"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="O820" s="34"/>
+      <c r="O820" s="28"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="O821" s="34"/>
+      <c r="O821" s="28"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="O822" s="34"/>
+      <c r="O822" s="28"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="O823" s="34"/>
+      <c r="O823" s="28"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="O824" s="34"/>
+      <c r="O824" s="28"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="O825" s="34"/>
+      <c r="O825" s="28"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="O826" s="34"/>
+      <c r="O826" s="28"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="O827" s="34"/>
+      <c r="O827" s="28"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="O828" s="34"/>
+      <c r="O828" s="28"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="O829" s="34"/>
+      <c r="O829" s="28"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="O830" s="34"/>
+      <c r="O830" s="28"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="O831" s="34"/>
+      <c r="O831" s="28"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="O832" s="34"/>
+      <c r="O832" s="28"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="O833" s="34"/>
+      <c r="O833" s="28"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="O834" s="34"/>
+      <c r="O834" s="28"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="O835" s="34"/>
+      <c r="O835" s="28"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="O836" s="34"/>
+      <c r="O836" s="28"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="O837" s="34"/>
+      <c r="O837" s="28"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="O838" s="34"/>
+      <c r="O838" s="28"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="O839" s="34"/>
+      <c r="O839" s="28"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="O840" s="34"/>
+      <c r="O840" s="28"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="O841" s="34"/>
+      <c r="O841" s="28"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="O842" s="34"/>
+      <c r="O842" s="28"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="O843" s="34"/>
+      <c r="O843" s="28"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="O844" s="34"/>
+      <c r="O844" s="28"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="O845" s="34"/>
+      <c r="O845" s="28"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="O846" s="34"/>
+      <c r="O846" s="28"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="O847" s="34"/>
+      <c r="O847" s="28"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="O848" s="34"/>
+      <c r="O848" s="28"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="O849" s="34"/>
+      <c r="O849" s="28"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="O850" s="34"/>
+      <c r="O850" s="28"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="O851" s="34"/>
+      <c r="O851" s="28"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="O852" s="34"/>
+      <c r="O852" s="28"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="O853" s="34"/>
+      <c r="O853" s="28"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="O854" s="34"/>
+      <c r="O854" s="28"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="O855" s="34"/>
+      <c r="O855" s="28"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="O856" s="34"/>
+      <c r="O856" s="28"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="O857" s="34"/>
+      <c r="O857" s="28"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="O858" s="34"/>
+      <c r="O858" s="28"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="O859" s="34"/>
+      <c r="O859" s="28"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="O860" s="34"/>
+      <c r="O860" s="28"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="O861" s="34"/>
+      <c r="O861" s="28"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="O862" s="34"/>
+      <c r="O862" s="28"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="O863" s="34"/>
+      <c r="O863" s="28"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="O864" s="34"/>
+      <c r="O864" s="28"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="O865" s="34"/>
+      <c r="O865" s="28"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="O866" s="34"/>
+      <c r="O866" s="28"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="O867" s="34"/>
+      <c r="O867" s="28"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="O868" s="34"/>
+      <c r="O868" s="28"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="O869" s="34"/>
+      <c r="O869" s="28"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="O870" s="34"/>
+      <c r="O870" s="28"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="O871" s="34"/>
+      <c r="O871" s="28"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="O872" s="34"/>
+      <c r="O872" s="28"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="O873" s="34"/>
+      <c r="O873" s="28"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="O874" s="34"/>
+      <c r="O874" s="28"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="O875" s="34"/>
+      <c r="O875" s="28"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="O876" s="34"/>
+      <c r="O876" s="28"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="O877" s="34"/>
+      <c r="O877" s="28"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="O878" s="34"/>
+      <c r="O878" s="28"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="O879" s="34"/>
+      <c r="O879" s="28"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="O880" s="34"/>
+      <c r="O880" s="28"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="O881" s="34"/>
+      <c r="O881" s="28"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="O882" s="34"/>
+      <c r="O882" s="28"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="O883" s="34"/>
+      <c r="O883" s="28"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="O884" s="34"/>
+      <c r="O884" s="28"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="O885" s="34"/>
+      <c r="O885" s="28"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="O886" s="34"/>
+      <c r="O886" s="28"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="O887" s="34"/>
+      <c r="O887" s="28"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="O888" s="34"/>
+      <c r="O888" s="28"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="O889" s="34"/>
+      <c r="O889" s="28"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="O890" s="34"/>
+      <c r="O890" s="28"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="O891" s="34"/>
+      <c r="O891" s="28"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="O892" s="34"/>
+      <c r="O892" s="28"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="O893" s="34"/>
+      <c r="O893" s="28"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="O894" s="34"/>
+      <c r="O894" s="28"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="O895" s="34"/>
+      <c r="O895" s="28"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="O896" s="34"/>
+      <c r="O896" s="28"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="O897" s="34"/>
+      <c r="O897" s="28"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="O898" s="34"/>
+      <c r="O898" s="28"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="O899" s="34"/>
+      <c r="O899" s="28"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="O900" s="34"/>
+      <c r="O900" s="28"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="O901" s="34"/>
+      <c r="O901" s="28"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="O902" s="34"/>
+      <c r="O902" s="28"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="O903" s="34"/>
+      <c r="O903" s="28"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="O904" s="34"/>
+      <c r="O904" s="28"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="O905" s="34"/>
+      <c r="O905" s="28"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="O906" s="34"/>
+      <c r="O906" s="28"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="O907" s="34"/>
+      <c r="O907" s="28"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="O908" s="34"/>
+      <c r="O908" s="28"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="O909" s="34"/>
+      <c r="O909" s="28"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="O910" s="34"/>
+      <c r="O910" s="28"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="O911" s="34"/>
+      <c r="O911" s="28"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="O912" s="34"/>
+      <c r="O912" s="28"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="O913" s="34"/>
+      <c r="O913" s="28"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="O914" s="34"/>
+      <c r="O914" s="28"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="O915" s="34"/>
+      <c r="O915" s="28"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="O916" s="34"/>
+      <c r="O916" s="28"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="O917" s="34"/>
+      <c r="O917" s="28"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="O918" s="34"/>
+      <c r="O918" s="28"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="O919" s="34"/>
+      <c r="O919" s="28"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="O920" s="34"/>
+      <c r="O920" s="28"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="O921" s="34"/>
+      <c r="O921" s="28"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="O922" s="34"/>
+      <c r="O922" s="28"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="O923" s="34"/>
+      <c r="O923" s="28"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="O924" s="34"/>
+      <c r="O924" s="28"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="O925" s="34"/>
+      <c r="O925" s="28"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="O926" s="34"/>
+      <c r="O926" s="28"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="O927" s="34"/>
+      <c r="O927" s="28"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="O928" s="34"/>
+      <c r="O928" s="28"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="O929" s="34"/>
+      <c r="O929" s="28"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="O930" s="34"/>
+      <c r="O930" s="28"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="O931" s="34"/>
+      <c r="O931" s="28"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="O932" s="34"/>
+      <c r="O932" s="28"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="O933" s="34"/>
+      <c r="O933" s="28"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="O934" s="34"/>
+      <c r="O934" s="28"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="O935" s="34"/>
+      <c r="O935" s="28"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="O936" s="34"/>
+      <c r="O936" s="28"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="O937" s="34"/>
+      <c r="O937" s="28"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="O938" s="34"/>
+      <c r="O938" s="28"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="O939" s="34"/>
+      <c r="O939" s="28"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="O940" s="34"/>
+      <c r="O940" s="28"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="O941" s="34"/>
+      <c r="O941" s="28"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="O942" s="34"/>
+      <c r="O942" s="28"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="O943" s="34"/>
+      <c r="O943" s="28"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="O944" s="34"/>
+      <c r="O944" s="28"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="O945" s="34"/>
+      <c r="O945" s="28"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="O946" s="34"/>
+      <c r="O946" s="28"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="O947" s="34"/>
+      <c r="O947" s="28"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="O948" s="34"/>
+      <c r="O948" s="28"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="O949" s="34"/>
+      <c r="O949" s="28"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="O950" s="34"/>
+      <c r="O950" s="28"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="O951" s="34"/>
+      <c r="O951" s="28"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="O952" s="34"/>
+      <c r="O952" s="28"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="O953" s="34"/>
+      <c r="O953" s="28"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="O954" s="34"/>
+      <c r="O954" s="28"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="O955" s="34"/>
+      <c r="O955" s="28"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="O956" s="34"/>
+      <c r="O956" s="28"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="O957" s="34"/>
+      <c r="O957" s="28"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="O958" s="34"/>
+      <c r="O958" s="28"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="O959" s="34"/>
+      <c r="O959" s="28"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="O960" s="34"/>
+      <c r="O960" s="28"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="O961" s="34"/>
+      <c r="O961" s="28"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="O962" s="34"/>
+      <c r="O962" s="28"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="O963" s="34"/>
+      <c r="O963" s="28"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="O964" s="34"/>
+      <c r="O964" s="28"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="O965" s="34"/>
+      <c r="O965" s="28"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="O966" s="34"/>
+      <c r="O966" s="28"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="O967" s="34"/>
+      <c r="O967" s="28"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="O968" s="34"/>
+      <c r="O968" s="28"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="O969" s="34"/>
+      <c r="O969" s="28"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="O970" s="34"/>
+      <c r="O970" s="28"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="O971" s="34"/>
+      <c r="O971" s="28"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="O972" s="34"/>
+      <c r="O972" s="28"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="O973" s="34"/>
+      <c r="O973" s="28"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="O974" s="34"/>
+      <c r="O974" s="28"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="O975" s="34"/>
+      <c r="O975" s="28"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="O976" s="34"/>
+      <c r="O976" s="28"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="O977" s="34"/>
+      <c r="O977" s="28"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="O978" s="34"/>
+      <c r="O978" s="28"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="O979" s="34"/>
+      <c r="O979" s="28"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="O980" s="34"/>
+      <c r="O980" s="28"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="O981" s="34"/>
+      <c r="O981" s="28"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="O982" s="34"/>
+      <c r="O982" s="28"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="O983" s="34"/>
+      <c r="O983" s="28"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="O984" s="34"/>
+      <c r="O984" s="28"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="O985" s="34"/>
+      <c r="O985" s="28"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="O986" s="34"/>
+      <c r="O986" s="28"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="O987" s="34"/>
+      <c r="O987" s="28"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="O988" s="34"/>
+      <c r="O988" s="28"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="O989" s="34"/>
+      <c r="O989" s="28"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="O990" s="34"/>
+      <c r="O990" s="28"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="O991" s="34"/>
+      <c r="O991" s="28"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="O992" s="34"/>
+      <c r="O992" s="28"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="O993" s="34"/>
+      <c r="O993" s="28"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="O994" s="34"/>
+      <c r="O994" s="28"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="O995" s="34"/>
+      <c r="O995" s="28"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="O996" s="34"/>
+      <c r="O996" s="28"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="O997" s="34"/>
+      <c r="O997" s="28"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="O998" s="34"/>
+      <c r="O998" s="28"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="O999" s="34"/>
+      <c r="O999" s="28"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="O1000" s="34"/>
+      <c r="O1000" s="28"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="O1001" s="34"/>
+      <c r="O1001" s="28"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="O1002" s="34"/>
+      <c r="O1002" s="28"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="O1003" s="34"/>
+      <c r="O1003" s="28"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="O1004" s="34"/>
+      <c r="O1004" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9069,12 +8973,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="13"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
       <c r="S1" s="2"/>
       <c r="T1" s="13"/>
       <c r="U1" s="2"/>
@@ -9103,12 +9003,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="13"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="2"/>
       <c r="T2" s="13"/>
       <c r="U2" s="2"/>
@@ -9118,12 +9014,10 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="Q3" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
@@ -9165,38 +9059,38 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="36">
+        <v>172</v>
+      </c>
+      <c r="C6" s="30">
         <v>1873749.0</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="30">
         <v>262389.0</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="31">
         <f t="shared" ref="E6:E21" si="1">C6/(C6+D6)</f>
         <v>0.8771666437</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="30">
         <v>960538.0</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="30">
         <v>188216.0</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="31">
         <f t="shared" ref="H6:H21" si="2">F6/(F6+G6)</f>
         <v>0.8361563921</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="30">
         <v>303809.0</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="30">
         <v>52426.0</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="31">
         <f t="shared" ref="K6:K21" si="3">I6/(I6+J6)</f>
         <v>0.8528331017</v>
       </c>
@@ -9204,304 +9098,304 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="36">
+        <v>173</v>
+      </c>
+      <c r="C7" s="30">
         <v>1873749.0</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <v>263547.0</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>0.8766913895</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="30">
         <v>960538.0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="30">
         <v>191711.0</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="31">
         <f t="shared" si="2"/>
         <v>0.8336201637</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="30">
         <v>303261.0</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="30">
         <v>52575.0</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="31">
         <f t="shared" si="3"/>
         <v>0.8522493508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="36">
+        <v>172</v>
+      </c>
+      <c r="C8" s="30">
         <v>1834882.0</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="30">
         <v>283735.0</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="31">
         <f t="shared" si="1"/>
         <v>0.866075369</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="30">
         <v>965105.0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="30">
         <v>202683.0</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="31">
         <f t="shared" si="2"/>
         <v>0.8264385317</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="30">
         <v>314254.0</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="30">
         <v>57887.0</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="31">
         <f t="shared" si="3"/>
         <v>0.8444487439</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="36">
+        <v>173</v>
+      </c>
+      <c r="C9" s="30">
         <v>1834882.0</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="30">
         <v>283272.0</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="31">
         <f t="shared" si="1"/>
         <v>0.8662646814</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="30">
         <v>965105.0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="30">
         <v>205596.0</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="31">
         <f t="shared" si="2"/>
         <v>0.8243821437</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="30">
         <v>313453.0</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="30">
         <v>57994.0</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="31">
         <f t="shared" si="3"/>
         <v>0.8438700541</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="36">
+      <c r="A10" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="30">
         <v>2000397.0</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="30">
         <v>268780.0</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="33">
         <f t="shared" si="1"/>
         <v>0.8815517697</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="30">
         <v>1008643.0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="30">
         <v>196338.0</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="33">
         <f t="shared" si="2"/>
         <v>0.8370613313</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="30">
         <v>335194.0</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="30">
         <v>54076.0</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="33">
         <f t="shared" si="3"/>
         <v>0.8610835667</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
     </row>
     <row r="11">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="36">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="30">
         <v>2000397.0</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="30">
         <v>272287.0</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="33">
         <f t="shared" si="1"/>
         <v>0.8801914388</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="30">
         <v>1008643.0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="30">
         <v>201678.0</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="33">
         <f t="shared" si="2"/>
         <v>0.8333681726</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="30">
         <v>334809.0</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="30">
         <v>54953.0</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="33">
         <f t="shared" si="3"/>
         <v>0.859008831</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="36">
+      <c r="A12" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="30">
         <v>2045944.0</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="30">
         <v>240432.0</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="33">
         <f t="shared" si="1"/>
         <v>0.8948414434</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="30">
         <v>1066712.0</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="30">
         <v>183518.0</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="33">
         <f t="shared" si="2"/>
         <v>0.8532126089</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="30">
         <v>352089.0</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="30">
         <v>51406.0</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="33">
         <f t="shared" si="3"/>
         <v>0.8725981735</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="40"/>
-      <c r="B13" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="36">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="30">
         <v>2045944.0</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="30">
         <v>242653.0</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="33">
         <f t="shared" si="1"/>
         <v>0.8939730324</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="30">
         <v>1066712.0</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="30">
         <v>186761.0</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="33">
         <f t="shared" si="2"/>
         <v>0.8510051672</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="30">
         <v>351352.0</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="30">
         <v>51784.0</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="33">
         <f t="shared" si="3"/>
         <v>0.871547071</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="36">
+        <v>172</v>
+      </c>
+      <c r="C14" s="30">
         <v>1962175.0</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="30">
         <v>247313.0</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="31">
         <f t="shared" si="1"/>
         <v>0.8880677333</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="30">
         <v>1029295.0</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="30">
         <v>176296.0</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="31">
         <f t="shared" si="2"/>
         <v>0.853767986</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="30">
         <v>321326.0</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="30">
         <v>49285.0</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="31">
         <f t="shared" si="3"/>
         <v>0.8670168991</v>
       </c>
@@ -9509,265 +9403,265 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="36">
+        <v>173</v>
+      </c>
+      <c r="C15" s="30">
         <v>1962175.0</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="30">
         <v>248620.0</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
         <v>0.8875427165</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="30">
         <v>1029295.0</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="30">
         <v>179934.0</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="31">
         <f t="shared" si="2"/>
         <v>0.8511994006</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="30">
         <v>320553.0</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="30">
         <v>50017.0</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="31">
         <f t="shared" si="3"/>
         <v>0.8650268505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="36">
+        <v>172</v>
+      </c>
+      <c r="C16" s="30">
         <v>1893998.0</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="30">
         <v>265058.0</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="31">
         <f t="shared" si="1"/>
         <v>0.8772343098</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="30">
         <v>1015148.0</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="30">
         <v>192583.0</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="31">
         <f t="shared" si="2"/>
         <v>0.8405414782</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="30">
         <v>320534.0</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="30">
         <v>55052.0</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="31">
         <f t="shared" si="3"/>
         <v>0.8534237165</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="36">
+        <v>173</v>
+      </c>
+      <c r="C17" s="30">
         <v>1893998.0</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="30">
         <v>265307.0</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="31">
         <f t="shared" si="1"/>
         <v>0.8771331516</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="30">
         <v>1015148.0</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="30">
         <v>195338.0</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="31">
         <f t="shared" si="2"/>
         <v>0.8386284517</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="30">
         <v>319439.0</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="30">
         <v>55249.0</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="31">
         <f t="shared" si="3"/>
         <v>0.8525466521</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="36">
+      <c r="A18" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="30">
         <v>1758316.0</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="30">
         <v>242322.0</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="36">
         <f t="shared" si="1"/>
         <v>0.878877638</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="30">
         <v>890317.0</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="30">
         <v>176887.0</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="36">
         <f t="shared" si="2"/>
         <v>0.8342519331</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="30">
         <v>265214.0</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="30">
         <v>47870.0</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="36">
         <f t="shared" si="3"/>
         <v>0.8471017363</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="36">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="30">
         <v>1758316.0</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="30">
         <v>244254.0</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="36">
         <f t="shared" si="1"/>
         <v>0.8780297318</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="30">
         <v>890317.0</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="30">
         <v>179725.0</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="36">
         <f t="shared" si="2"/>
         <v>0.8320393031</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="30">
         <v>264003.0</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="30">
         <v>48604.0</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="36">
         <f t="shared" si="3"/>
         <v>0.8445204362</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="36">
+      <c r="A20" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="30">
         <v>1870379.0</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="30">
         <v>248428.0</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="36">
         <f t="shared" si="1"/>
         <v>0.8827510009</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="30">
         <v>988314.0</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="30">
         <v>187854.0</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="36">
         <f t="shared" si="2"/>
         <v>0.8402830208</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="30">
         <v>320785.0</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="30">
         <v>52651.0</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="36">
         <f t="shared" si="3"/>
         <v>0.8590093082</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="43"/>
-      <c r="B21" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="36">
+      <c r="A21" s="37"/>
+      <c r="B21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="30">
         <v>1870379.0</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="30">
         <v>248120.0</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="36">
         <f t="shared" si="1"/>
         <v>0.8828793405</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="30">
         <v>988314.0</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="30">
         <v>189818.0</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="36">
         <f t="shared" si="2"/>
         <v>0.8388822305</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="30">
         <v>319691.0</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="30">
         <v>52840.0</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="36">
         <f t="shared" si="3"/>
         <v>0.8581594552</v>
       </c>
     </row>
     <row r="22">
-      <c r="K22" s="37"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="28">
-      <c r="C28" s="44"/>
+      <c r="C28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9777,107 +9671,4 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="47">
-        <v>115.0</v>
-      </c>
-      <c r="C2" s="47">
-        <v>463.0</v>
-      </c>
-      <c r="D2" s="48">
-        <v>0.756</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="47">
-        <v>103.0</v>
-      </c>
-      <c r="C3" s="47">
-        <v>418.0</v>
-      </c>
-      <c r="D3" s="49">
-        <v>0.703</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="47">
-        <v>63.0</v>
-      </c>
-      <c r="C4" s="47">
-        <v>218.0</v>
-      </c>
-      <c r="D4" s="49">
-        <v>0.459</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="47">
-        <v>114.0</v>
-      </c>
-      <c r="C5" s="47">
-        <v>444.0</v>
-      </c>
-      <c r="D5" s="47">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="47">
-        <v>8800.0</v>
-      </c>
-      <c r="C6" s="47">
-        <v>34009.0</v>
-      </c>
-      <c r="D6" s="45"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>